--- a/data/traffic.xlsx
+++ b/data/traffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unistackr0-my.sharepoint.com/personal/leeminji_unist_ac_kr/Documents/깃허브(프로젝트정리)/Proejct_hybrid_model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unistackr0-my.sharepoint.com/personal/leeminji_unist_ac_kr/Documents/깃허브(프로젝트정리)/MPUGAT/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{2F058EB0-7FC8-438E-ACDA-2B5B77ED509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB19AC56-7807-4665-8B09-B4AA74A7FF95}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{2F058EB0-7FC8-438E-ACDA-2B5B77ED509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2B897A-937A-41EA-A302-8AB6B94A661C}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{6145034C-5A9B-4414-804C-44FDA7DE349F}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="19200" windowHeight="11260" xr2:uid="{6145034C-5A9B-4414-804C-44FDA7DE349F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -481,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED0B13-5F1E-4D64-9FA0-411D5FBBB700}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -628,8 +627,7 @@
         <v>36869.457625963303</v>
       </c>
       <c r="M3">
-        <f>SUM(K3+L3)</f>
-        <v>107761.1156355032</v>
+        <v>73206.855937100772</v>
       </c>
       <c r="N3">
         <v>15999.199706868478</v>
@@ -647,7 +645,7 @@
         <v>16202.932613295401</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -685,8 +683,7 @@
         <v>1063.8398898716835</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M18" si="0">SUM(K4+L4)</f>
-        <v>2131.4479563794112</v>
+        <v>2131.8065561832314</v>
       </c>
       <c r="N4">
         <v>4293.9386988179876</v>
@@ -704,7 +701,7 @@
         <v>3446.6197392292975</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -742,8 +739,7 @@
         <v>4443.0387832325769</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>7053.5104844161351</v>
+        <v>3901.2515641902442</v>
       </c>
       <c r="N5">
         <v>1783.1467905319068</v>
@@ -761,7 +757,7 @@
         <v>1846.4395374954631</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -799,8 +795,7 @@
         <v>9292.0293742500617</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>16489.029350672383</v>
+        <v>22026.958664277579</v>
       </c>
       <c r="N6">
         <v>5271.9753498761256</v>
@@ -818,7 +813,7 @@
         <v>3492.7980481214122</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -856,8 +851,7 @@
         <v>1406.7149412027566</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1828.9372417425641</v>
+        <v>5665.9309540923314</v>
       </c>
       <c r="N7">
         <v>27598.099341088382</v>
@@ -875,7 +869,7 @@
         <v>1610.1540194037314</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -913,8 +907,7 @@
         <v>114361.62447764039</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>117728.56204051117</v>
+        <v>247909.6411863307</v>
       </c>
       <c r="N8">
         <v>14773.559540809707</v>
@@ -932,7 +925,7 @@
         <v>1012.8747454241674</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -970,8 +963,7 @@
         <v>534.80646397102805</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>4374.3035844736214</v>
+        <v>1111.6130643036167</v>
       </c>
       <c r="N9">
         <v>1312.8869935425064</v>
@@ -989,7 +981,7 @@
         <v>744.81717707130792</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1027,8 +1019,7 @@
         <v>72033.68838230746</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>161533.91431357773</v>
+        <v>177779.75704886709</v>
       </c>
       <c r="N10">
         <v>13973.795614768731</v>
@@ -1046,7 +1037,7 @@
         <v>7092.0120629120029</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1084,8 +1075,7 @@
         <v>26282.834478672288</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>2612583.169226747</v>
+        <v>1908.728192265906</v>
       </c>
       <c r="N11">
         <v>544.83333992582368</v>
@@ -1103,7 +1093,7 @@
         <v>778.30028075626058</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1141,8 +1131,7 @@
         <v>2538598.2856421741</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
-        <v>2561292.2880093586</v>
+        <v>113161.41624845991</v>
       </c>
       <c r="N12">
         <v>6938.581270470524</v>
@@ -1160,7 +1149,7 @@
         <v>1193.9897925009866</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1168,56 +1157,55 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>73726.009999999995</v>
+        <v>73726.00927701476</v>
       </c>
       <c r="D13">
-        <v>2296.7779999999998</v>
+        <v>2296.7780313608</v>
       </c>
       <c r="E13">
-        <v>3705.48</v>
+        <v>3705.4795232973602</v>
       </c>
       <c r="F13">
-        <v>23432.639999999999</v>
+        <v>23432.63964213906</v>
       </c>
       <c r="G13">
-        <v>5486.07</v>
+        <v>5486.0700908834024</v>
       </c>
       <c r="H13">
-        <v>249677.5</v>
+        <v>249677.51173298957</v>
       </c>
       <c r="I13">
-        <v>1028.9490000000001</v>
+        <v>1028.9486325860571</v>
       </c>
       <c r="J13">
-        <v>178266.6</v>
+        <v>178266.5595568229</v>
       </c>
       <c r="K13">
-        <v>1728.2190000000001</v>
+        <v>1728.2193746408575</v>
       </c>
       <c r="L13">
-        <v>119549.3</v>
+        <v>119549.32636226332</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
-        <v>121277.519</v>
+        <v>4198144.5903420327</v>
       </c>
       <c r="N13">
-        <v>28133.41</v>
+        <v>28133.408138929939</v>
       </c>
       <c r="O13">
-        <v>5655.3540000000003</v>
+        <v>5655.3535839323949</v>
       </c>
       <c r="P13">
-        <v>4355.0309999999999</v>
+        <v>4355.0308509169527</v>
       </c>
       <c r="Q13">
-        <v>4303.7709999999997</v>
+        <v>4303.7709344544264</v>
       </c>
       <c r="R13">
-        <v>966.63409999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+        <v>966.63411423097705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1255,8 +1243,7 @@
         <v>6703.0843848306404</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
-        <v>7292.5007598584234</v>
+        <v>32218.05463815391</v>
       </c>
       <c r="N14">
         <v>2754121.8445610693</v>
@@ -1274,7 +1261,7 @@
         <v>822.75636320771821</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1312,8 +1299,7 @@
         <v>1273.3517570184586</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
-        <v>1897.5246604672066</v>
+        <v>5512.1889453577814</v>
       </c>
       <c r="N15">
         <v>31184.682457742856</v>
@@ -1331,7 +1317,7 @@
         <v>2692.9855254630784</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1369,8 +1355,7 @@
         <v>14742.333892740086</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
-        <v>24554.855469438393</v>
+        <v>4256.8902228527368</v>
       </c>
       <c r="N16">
         <v>2559.3205808356347</v>
@@ -1388,7 +1373,7 @@
         <v>868.61638230036851</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1426,8 +1411,7 @@
         <v>3578.8266233835725</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>4355.7737412125607</v>
+        <v>4578.6216282725281</v>
       </c>
       <c r="N17">
         <v>9775.3828327814845</v>
@@ -1445,7 +1429,7 @@
         <v>1873.096533803938</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1483,8 +1467,7 @@
         <v>1178.3260221414525</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
-        <v>1944.1657542926671</v>
+        <v>951.61176410066344</v>
       </c>
       <c r="N18">
         <v>787.18157476188333</v>
@@ -1513,12 +1496,12 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1526,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>62639.4193348182+Sheet2!B2</f>
         <v>73206.85593710083</v>
@@ -1539,7 +1522,7 @@
         <v>83774.292539383459</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1618.1057550279418</v>
       </c>
@@ -1551,7 +1534,7 @@
         <v>2131.8065561832314</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3180.7988571093251</v>
       </c>
@@ -1563,7 +1546,7 @@
         <v>3901.2515641902442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>20310.217911796633</v>
       </c>
@@ -1575,7 +1558,7 @@
         <v>22026.958664277579</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5043.2280329384266</v>
       </c>
@@ -1587,7 +1570,7 @@
         <v>5665.9309540923314</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>149550.28597973526</v>
       </c>
@@ -1599,7 +1582,7 @@
         <v>247909.6411863307</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>944.52562604014338</v>
       </c>
@@ -1611,7 +1594,7 @@
         <v>1111.6130643036167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>168094.79149731644</v>
       </c>
@@ -1623,7 +1606,7 @@
         <v>177779.75704886709</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1410.919355415575</v>
       </c>
@@ -1635,7 +1618,7 @@
         <v>1908.728192265906</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>54123.634242543798</v>
       </c>
@@ -1647,7 +1630,7 @@
         <v>113161.41624845991</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3734594</v>
       </c>
@@ -1659,7 +1642,7 @@
         <v>4198144.4000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>30351.344081848354</v>
       </c>
@@ -1671,7 +1654,7 @@
         <v>32218.05463815391</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4843.654697656486</v>
       </c>
@@ -1683,7 +1666,7 @@
         <v>5512.1889453577814</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3541.6333652945236</v>
       </c>
@@ -1695,7 +1678,7 @@
         <v>4256.8902228527368</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3225.4393360185168</v>
       </c>
@@ -1707,7 +1690,7 @@
         <v>4578.6216282725281</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>811.85113783975726</v>
       </c>
